--- a/Write/20190715-实验回忆/correlation-毕业设计图-新格式.xlsx
+++ b/Write/20190715-实验回忆/correlation-毕业设计图-新格式.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/db9-216/Desktop/毕设图-0320/实验图重画/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43439664-64FA-4341-A095-B616B576D1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="680" windowWidth="17560" windowHeight="13300" activeTab="1"/>
+    <workbookView xWindow="4125" yWindow="675" windowWidth="17565" windowHeight="13305" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +13,7 @@
     <sheet name="124-5dim" sheetId="3" r:id="rId3"/>
     <sheet name="test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -847,25 +843,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -896,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -912,9 +908,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -933,9 +929,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.151482843278507"/>
-          <c:y val="0.0502611049251329"/>
-          <c:w val="0.586232442469259"/>
-          <c:h val="0.679346945254881"/>
+          <c:y val="5.0261104925132902E-2"/>
+          <c:w val="0.58623244246925899"/>
+          <c:h val="0.67934694525488104"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -995,23 +991,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.800966666666667</c:v>
+                  <c:v>0.8009666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.558883333333333</c:v>
+                  <c:v>0.55888333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.419183333333333</c:v>
+                  <c:v>0.4191833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92455</c:v>
+                  <c:v>0.92454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.505616666666667</c:v>
+                  <c:v>0.50561666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B42B-4445-B64E-7B36DFDC6728}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1061,23 +1062,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.957933333333333</c:v>
+                  <c:v>0.95793333333333341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.643133333333333</c:v>
+                  <c:v>0.64313333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.278966666666667</c:v>
+                  <c:v>0.27896666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.807666666666667</c:v>
+                  <c:v>0.80766666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.389066666666667</c:v>
+                  <c:v>0.38906666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B42B-4445-B64E-7B36DFDC6728}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1126,7 +1132,7 @@
                 <a:cs typeface="Calibri" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2106850000"/>
@@ -1141,7 +1147,7 @@
         <c:axId val="-2106850000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1181,8 +1187,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0277063337466293"/>
-              <c:y val="0.0766808314462375"/>
+              <c:x val="2.77063337466293E-2"/>
+              <c:y val="7.6680831446237496E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1207,7 +1213,7 @@
                   <a:cs typeface="Calibri" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1239,7 +1245,7 @@
                 <a:cs typeface="Calibri" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2106915360"/>
@@ -1262,7 +1268,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.773571864919737"/>
+          <c:x val="0.77357186491973695"/>
           <c:y val="0.110607470551701"/>
           <c:w val="0.149817515730964"/>
           <c:h val="0.171651657315291"/>
@@ -1290,7 +1296,7 @@
               <a:cs typeface="Calibri" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1322,7 +1328,7 @@
           <a:cs typeface="Calibri" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1334,9 +1340,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1354,10 +1360,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0665039082180541"/>
-          <c:y val="0.0431092369798953"/>
-          <c:w val="0.911658542682165"/>
-          <c:h val="0.854203080384183"/>
+          <c:x val="6.6503908218054103E-2"/>
+          <c:y val="4.3109236979895299E-2"/>
+          <c:w val="0.91165854268216495"/>
+          <c:h val="0.85420308038418302"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1421,24 +1427,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.800966666666667</c:v>
+                  <c:v>0.8009666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.558883333333333</c:v>
+                  <c:v>0.55888333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.419183333333333</c:v>
+                  <c:v>0.4191833333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92455</c:v>
+                  <c:v>0.92454999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.505616666666667</c:v>
+                  <c:v>0.50561666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C309-4F0E-AC57-D53FA1AC8115}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1498,24 +1509,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.957933333333333</c:v>
+                  <c:v>0.95793333333333341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.643133333333333</c:v>
+                  <c:v>0.64313333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.278966666666667</c:v>
+                  <c:v>0.27896666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.807666666666667</c:v>
+                  <c:v>0.80766666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.389066666666667</c:v>
+                  <c:v>0.38906666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C309-4F0E-AC57-D53FA1AC8115}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1565,7 +1581,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2115901280"/>
@@ -1611,7 +1627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2115904352"/>
@@ -1634,10 +1650,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0967233321186965"/>
-          <c:y val="0.0553400824896888"/>
+          <c:x val="9.6723332118696506E-2"/>
+          <c:y val="5.5340082489688802E-2"/>
           <c:w val="0.441204391704558"/>
-          <c:h val="0.156829250510353"/>
+          <c:h val="0.15682925051035301"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1664,7 +1680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1694,7 +1710,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1706,9 +1722,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1727,10 +1743,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.146254952340641"/>
-          <c:y val="0.0502611049251329"/>
-          <c:w val="0.57764887071039"/>
-          <c:h val="0.696635757673073"/>
+          <c:x val="0.14625495234064101"/>
+          <c:y val="5.0261104925132902E-2"/>
+          <c:w val="0.57764887071038995"/>
+          <c:h val="0.69663575767307295"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1798,23 +1814,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.854838709677419</c:v>
+                  <c:v>0.85483870967741937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.411290322580645</c:v>
+                  <c:v>0.41129032258064518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.314516129032258</c:v>
+                  <c:v>0.31451612903225806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.766129032258064</c:v>
+                  <c:v>0.7661290322580645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.669354838709677</c:v>
+                  <c:v>0.66935483870967738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9434-4528-B617-C6C2C2FF00FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1872,23 +1893,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.064516129032258</c:v>
+                  <c:v>6.4516129032258063E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.201612903225806</c:v>
+                  <c:v>0.20161290322580644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0725806451612903</c:v>
+                  <c:v>7.2580645161290328E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.153225806451613</c:v>
+                  <c:v>0.15322580645161291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9434-4528-B617-C6C2C2FF00FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1937,7 +1963,7 @@
                 <a:cs typeface="Calibri" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2106912176"/>
@@ -1952,7 +1978,7 @@
         <c:axId val="-2106912176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1992,8 +2018,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0242210023530198"/>
-              <c:y val="0.0800690513558959"/>
+              <c:x val="2.4221002353019799E-2"/>
+              <c:y val="8.0069051355895898E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2018,7 +2044,7 @@
                   <a:cs typeface="Calibri" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2050,7 +2076,7 @@
                 <a:cs typeface="Calibri" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2106921344"/>
@@ -2073,7 +2099,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.755989166287622"/>
+          <c:x val="0.75598916628762203"/>
           <c:y val="0.110840890048862"/>
           <c:w val="0.175913967888989"/>
           <c:h val="0.171651657315291"/>
@@ -2101,7 +2127,7 @@
               <a:cs typeface="Calibri" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2133,7 +2159,7 @@
           <a:cs typeface="Calibri" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2145,9 +2171,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2165,10 +2191,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066580927384077"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.902863517060367"/>
-          <c:h val="0.746673957421989"/>
+          <c:x val="6.6580927384077004E-2"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.90286351706036705"/>
+          <c:h val="0.74667395742198905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2950,61 +2976,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>8.8908</c:v>
+                  <c:v>8.8908000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8908</c:v>
+                  <c:v>8.8908000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5169</c:v>
+                  <c:v>7.5168999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5169</c:v>
+                  <c:v>7.5168999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4134</c:v>
+                  <c:v>7.4134000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4134</c:v>
+                  <c:v>7.4134000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3943</c:v>
+                  <c:v>7.3943000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3943</c:v>
+                  <c:v>7.3943000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9451</c:v>
+                  <c:v>6.9451000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9451</c:v>
+                  <c:v>6.9451000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8277</c:v>
+                  <c:v>6.8277000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8277</c:v>
+                  <c:v>6.8277000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6693</c:v>
+                  <c:v>6.6692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6693</c:v>
+                  <c:v>6.6692999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6582</c:v>
+                  <c:v>6.6581999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6582</c:v>
+                  <c:v>6.6581999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6354</c:v>
+                  <c:v>6.6353999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4867</c:v>
+                  <c:v>6.4866999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4867</c:v>
+                  <c:v>6.4866999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.9714</c:v>
@@ -3013,10 +3039,10 @@
                   <c:v>5.9714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7311</c:v>
+                  <c:v>5.7310999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7311</c:v>
+                  <c:v>5.7310999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.7222</c:v>
@@ -3025,28 +3051,28 @@
                   <c:v>5.7222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.6735</c:v>
+                  <c:v>5.6734999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.6735</c:v>
+                  <c:v>5.6734999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4749</c:v>
+                  <c:v>5.4748999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4749</c:v>
+                  <c:v>5.4748999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3114</c:v>
+                  <c:v>5.3113999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3114</c:v>
+                  <c:v>5.3113999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.1872</c:v>
+                  <c:v>5.1871999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.1872</c:v>
+                  <c:v>5.1871999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5.1025</c:v>
@@ -3055,154 +3081,154 @@
                   <c:v>5.1025</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9766</c:v>
+                  <c:v>4.9766000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9766</c:v>
+                  <c:v>4.9766000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9099</c:v>
+                  <c:v>4.9099000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.9099</c:v>
+                  <c:v>4.9099000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.8521</c:v>
+                  <c:v>4.8521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.8521</c:v>
+                  <c:v>4.8521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.8521</c:v>
+                  <c:v>4.8521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.8521</c:v>
+                  <c:v>4.8521000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.8493</c:v>
+                  <c:v>4.8493000000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.8493</c:v>
+                  <c:v>4.8493000000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.802</c:v>
+                  <c:v>4.8019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.802</c:v>
+                  <c:v>4.8019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6523</c:v>
+                  <c:v>4.6523000000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6523</c:v>
+                  <c:v>4.6523000000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.5848</c:v>
+                  <c:v>4.5848000000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.5848</c:v>
+                  <c:v>4.5848000000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.5693</c:v>
+                  <c:v>4.5693000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.5693</c:v>
+                  <c:v>4.5693000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.4945</c:v>
+                  <c:v>4.4945000000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4945</c:v>
+                  <c:v>4.4945000000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.3676</c:v>
+                  <c:v>4.3676000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.3676</c:v>
+                  <c:v>4.3676000000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.3518</c:v>
+                  <c:v>4.3517999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.3518</c:v>
+                  <c:v>4.3517999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.2691</c:v>
+                  <c:v>4.2690999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.2691</c:v>
+                  <c:v>4.2690999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.2617</c:v>
+                  <c:v>4.2617000000000003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.2617</c:v>
+                  <c:v>4.2617000000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.1691</c:v>
+                  <c:v>4.1691000000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.1691</c:v>
+                  <c:v>4.1691000000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.159</c:v>
+                  <c:v>4.1589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.159</c:v>
+                  <c:v>4.1589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.159</c:v>
+                  <c:v>4.1589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.159</c:v>
+                  <c:v>4.1589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.1294</c:v>
+                  <c:v>4.1294000000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.1294</c:v>
+                  <c:v>4.1294000000000004</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.1179</c:v>
+                  <c:v>4.1178999999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.1179</c:v>
+                  <c:v>4.1178999999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.1175</c:v>
+                  <c:v>4.1174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.1175</c:v>
+                  <c:v>4.1174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.052</c:v>
+                  <c:v>4.0519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.052</c:v>
+                  <c:v>4.0519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0325</c:v>
+                  <c:v>4.0324999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.0325</c:v>
+                  <c:v>4.0324999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.974</c:v>
+                  <c:v>3.9740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.974</c:v>
+                  <c:v>3.9740000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.852</c:v>
+                  <c:v>3.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.852</c:v>
+                  <c:v>3.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.8258</c:v>
+                  <c:v>3.8258000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.8258</c:v>
+                  <c:v>3.8258000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3.7721</c:v>
@@ -3217,28 +3243,28 @@
                   <c:v>3.7435</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.6907</c:v>
+                  <c:v>3.6907000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.6907</c:v>
+                  <c:v>3.6907000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.6437</c:v>
+                  <c:v>3.6436999999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6437</c:v>
+                  <c:v>3.6436999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3.6429</c:v>
@@ -3253,58 +3279,58 @@
                   <c:v>3.6391</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.5915</c:v>
+                  <c:v>3.5914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.5915</c:v>
+                  <c:v>3.5914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.5735</c:v>
+                  <c:v>3.5735000000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.5735</c:v>
+                  <c:v>3.5735000000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.5563</c:v>
+                  <c:v>3.5562999999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.5563</c:v>
+                  <c:v>3.5562999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.5563</c:v>
+                  <c:v>3.5562999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.5563</c:v>
+                  <c:v>3.5562999999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.5554</c:v>
+                  <c:v>3.5554000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.5554</c:v>
+                  <c:v>3.5554000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.5157</c:v>
+                  <c:v>3.5156999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.5157</c:v>
+                  <c:v>3.5156999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.4773</c:v>
+                  <c:v>3.4773000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.4773</c:v>
+                  <c:v>3.4773000000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>3.2742</c:v>
@@ -3325,46 +3351,46 @@
                   <c:v>3.2094</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.182</c:v>
+                  <c:v>3.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.182</c:v>
+                  <c:v>3.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.182</c:v>
+                  <c:v>3.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.182</c:v>
+                  <c:v>3.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.9801</c:v>
+                  <c:v>2.9801000000000002</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.9801</c:v>
+                  <c:v>2.9801000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.9118</c:v>
+                  <c:v>2.9117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.9118</c:v>
+                  <c:v>2.9117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>2.8632</c:v>
@@ -3391,16 +3417,16 @@
                   <c:v>2.8411</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>2.6471</c:v>
@@ -3415,70 +3441,70 @@
                   <c:v>2.6471</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>2.101</c:v>
@@ -3517,10 +3543,10 @@
                   <c:v>2.101</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>1.9653</c:v>
@@ -3553,94 +3579,94 @@
                   <c:v>1.9452</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.4038</c:v>
+                  <c:v>1.4037999999999999</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1.4038</c:v>
+                  <c:v>1.4037999999999999</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>1.1231</c:v>
@@ -3667,38 +3693,43 @@
                   <c:v>0.5615</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F1B-488B-8E61-D487B6E33BB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3753,7 +3784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2120625008"/>
@@ -3798,7 +3829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2141107088"/>
@@ -3819,10 +3850,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84383800256795"/>
-          <c:y val="0.019096675415573"/>
+          <c:x val="0.84383800256795005"/>
+          <c:y val="1.9096675415573E-2"/>
           <c:w val="0.116384140587535"/>
-          <c:h val="0.258681102362205"/>
+          <c:h val="0.25868110236220498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3850,7 +3881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3880,7 +3911,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3892,9 +3923,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3912,10 +3943,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066580927384077"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.902863517060367"/>
-          <c:h val="0.746673957421989"/>
+          <c:x val="6.6580927384077004E-2"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.90286351706036705"/>
+          <c:h val="0.74667395742198905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4703,16 +4734,16 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3058</c:v>
+                  <c:v>4.3057999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3058</c:v>
+                  <c:v>4.3057999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.8203</c:v>
@@ -4721,10 +4752,10 @@
                   <c:v>3.8203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6499</c:v>
+                  <c:v>3.6499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6499</c:v>
+                  <c:v>3.6499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.4615</c:v>
@@ -4733,10 +4764,10 @@
                   <c:v>3.4615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4386</c:v>
+                  <c:v>3.4386000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4386</c:v>
+                  <c:v>3.4386000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.375</c:v>
@@ -4745,16 +4776,16 @@
                   <c:v>3.375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3.242</c:v>
@@ -4763,28 +4794,28 @@
                   <c:v>3.242</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9178</c:v>
+                  <c:v>2.9178000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9178</c:v>
+                  <c:v>2.9178000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.9118</c:v>
+                  <c:v>2.9117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9118</c:v>
+                  <c:v>2.9117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.8706</c:v>
@@ -4799,19 +4830,19 @@
                   <c:v>2.8632</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.7509</c:v>
+                  <c:v>2.7509000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.7509</c:v>
+                  <c:v>2.7509000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7015</c:v>
+                  <c:v>2.7014999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.6471</c:v>
@@ -4820,88 +4851,88 @@
                   <c:v>2.6471</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.3944</c:v>
+                  <c:v>2.3944000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3944</c:v>
+                  <c:v>2.3944000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2.101</c:v>
@@ -4916,22 +4947,22 @@
                   <c:v>2.101</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.9452</c:v>
@@ -4958,118 +4989,118 @@
                   <c:v>1.9452</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>1.1231</c:v>
@@ -5150,28 +5181,28 @@
                   <c:v>1.1231</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.7941</c:v>
+                  <c:v>0.79410000000000003</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.7941</c:v>
+                  <c:v>0.79410000000000003</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0.5615</c:v>
@@ -5180,272 +5211,277 @@
                   <c:v>0.5615</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6055-4E5D-85D7-564D9486FBC4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5500,7 +5536,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2115952848"/>
@@ -5514,7 +5550,7 @@
         <c:axId val="2115952848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5546,7 +5582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2119712848"/>
@@ -5567,10 +5603,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84383800256795"/>
-          <c:y val="0.019096675415573"/>
+          <c:x val="0.84383800256795005"/>
+          <c:y val="1.9096675415573E-2"/>
           <c:w val="0.116384140587535"/>
-          <c:h val="0.258681102362205"/>
+          <c:h val="0.25868110236220498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5598,7 +5634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5628,7 +5664,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5640,9 +5676,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5661,10 +5697,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066580927384077"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.902863517060367"/>
-          <c:h val="0.746673957421989"/>
+          <c:x val="6.6580927384077004E-2"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.90286351706036705"/>
+          <c:h val="0.74667395742198905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6446,28 +6482,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>3.5735</c:v>
+                  <c:v>3.5735000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5735</c:v>
+                  <c:v>3.5735000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5514</c:v>
+                  <c:v>3.5514000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5514</c:v>
+                  <c:v>3.5514000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.242</c:v>
@@ -6476,10 +6512,10 @@
                   <c:v>3.242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0135</c:v>
+                  <c:v>3.0135000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0135</c:v>
+                  <c:v>3.0135000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.8411</c:v>
@@ -6488,76 +6524,76 @@
                   <c:v>2.8411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8076</c:v>
+                  <c:v>2.8075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7794</c:v>
+                  <c:v>2.7793999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7794</c:v>
+                  <c:v>2.7793999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7509</c:v>
+                  <c:v>2.7509000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7509</c:v>
+                  <c:v>2.7509000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3944</c:v>
+                  <c:v>2.3944000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3944</c:v>
+                  <c:v>2.3944000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.2601</c:v>
@@ -6566,40 +6602,40 @@
                   <c:v>2.2601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0632</c:v>
+                  <c:v>2.0632000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0632</c:v>
+                  <c:v>2.0632000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.9452</c:v>
@@ -6611,118 +6647,118 @@
                   <c:v>1.9397</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>1.2968</c:v>
@@ -6803,16 +6839,16 @@
                   <c:v>1.1231</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>0.5615</c:v>
@@ -6827,374 +6863,379 @@
                   <c:v>0.5615</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.4585</c:v>
+                  <c:v>0.45850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5037-4EAC-BB66-A2A17FB4576E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7249,7 +7290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2109053216"/>
@@ -7263,7 +7304,7 @@
         <c:axId val="-2109053216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7295,7 +7336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2109056496"/>
@@ -7316,10 +7357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84383800256795"/>
-          <c:y val="0.019096675415573"/>
+          <c:x val="0.84383800256795005"/>
+          <c:y val="1.9096675415573E-2"/>
           <c:w val="0.116384140587535"/>
-          <c:h val="0.258681102362205"/>
+          <c:h val="0.25868110236220498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7347,7 +7388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7377,7 +7418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7389,9 +7430,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7410,10 +7451,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066580927384077"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.902863517060367"/>
-          <c:h val="0.746673957421989"/>
+          <c:x val="6.6580927384077004E-2"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.90286351706036705"/>
+          <c:h val="0.74667395742198905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8195,28 +8236,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>7.7807</c:v>
+                  <c:v>7.7807000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7807</c:v>
+                  <c:v>7.7807000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4402</c:v>
+                  <c:v>7.4401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4402</c:v>
+                  <c:v>7.4401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9316</c:v>
+                  <c:v>6.9316000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9316</c:v>
+                  <c:v>6.9316000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8235</c:v>
+                  <c:v>5.8235000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8235</c:v>
+                  <c:v>5.8235000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.72</c:v>
@@ -8231,37 +8272,37 @@
                   <c:v>5.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4265</c:v>
+                  <c:v>5.4264999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4265</c:v>
+                  <c:v>5.4264999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4159</c:v>
+                  <c:v>5.4158999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2676</c:v>
+                  <c:v>5.2675999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2676</c:v>
+                  <c:v>5.2675999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2221</c:v>
+                  <c:v>5.2221000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2221</c:v>
+                  <c:v>5.2221000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2074</c:v>
+                  <c:v>5.2073999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.2074</c:v>
+                  <c:v>5.2073999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9665</c:v>
+                  <c:v>4.9664999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.9665</c:v>
+                  <c:v>4.9664999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4.8666</c:v>
@@ -8270,22 +8311,22 @@
                   <c:v>4.8666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5022</c:v>
+                  <c:v>4.5022000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5022</c:v>
+                  <c:v>4.5022000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.4708</c:v>
+                  <c:v>4.4707999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.4708</c:v>
+                  <c:v>4.4707999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3676</c:v>
+                  <c:v>4.3676000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.3676</c:v>
+                  <c:v>4.3676000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.3323</c:v>
@@ -8294,22 +8335,22 @@
                   <c:v>4.3323</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.205</c:v>
+                  <c:v>4.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.205</c:v>
+                  <c:v>4.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.1902</c:v>
+                  <c:v>4.1901999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.1902</c:v>
+                  <c:v>4.1901999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.1294</c:v>
+                  <c:v>4.1294000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.1294</c:v>
+                  <c:v>4.1294000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4.0446</c:v>
@@ -8330,34 +8371,34 @@
                   <c:v>3.9857</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.9706</c:v>
+                  <c:v>3.9706000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.9146</c:v>
+                  <c:v>3.9146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.9146</c:v>
+                  <c:v>3.9146000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.852</c:v>
+                  <c:v>3.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.852</c:v>
+                  <c:v>3.8519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.8258</c:v>
+                  <c:v>3.8258000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.8258</c:v>
+                  <c:v>3.8258000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>3.8203</c:v>
@@ -8372,10 +8413,10 @@
                   <c:v>3.7435</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.6437</c:v>
+                  <c:v>3.6436999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.6437</c:v>
+                  <c:v>3.6436999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>3.4857</c:v>
@@ -8384,46 +8425,46 @@
                   <c:v>3.4857</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.4668</c:v>
+                  <c:v>3.4668000000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.4668</c:v>
+                  <c:v>3.4668000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.4386</c:v>
+                  <c:v>3.4386000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.4386</c:v>
+                  <c:v>3.4386000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3958</c:v>
+                  <c:v>3.3957999999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3958</c:v>
+                  <c:v>3.3957999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3037</c:v>
+                  <c:v>3.3037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3.2925</c:v>
@@ -8432,10 +8473,10 @@
                   <c:v>3.2925</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.2806</c:v>
+                  <c:v>3.2806000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3.2742</c:v>
@@ -8444,58 +8485,58 @@
                   <c:v>3.2742</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.2646</c:v>
+                  <c:v>3.2646000000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2646</c:v>
+                  <c:v>3.2646000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.0015</c:v>
+                  <c:v>3.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.0015</c:v>
+                  <c:v>3.0015000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.9713</c:v>
+                  <c:v>2.9712999999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.9713</c:v>
+                  <c:v>2.9712999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.8732</c:v>
+                  <c:v>2.8732000000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2.8632</c:v>
@@ -8510,16 +8551,16 @@
                   <c:v>2.8411</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.7794</c:v>
+                  <c:v>2.7793999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.7794</c:v>
+                  <c:v>2.7793999999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.7013</c:v>
+                  <c:v>2.7012999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.7013</c:v>
+                  <c:v>2.7012999999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>2.6471</c:v>
@@ -8558,106 +8599,106 @@
                   <c:v>2.6471</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.6205</c:v>
+                  <c:v>2.6204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.6205</c:v>
+                  <c:v>2.6204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.5468</c:v>
+                  <c:v>2.5468000000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.5468</c:v>
+                  <c:v>2.5468000000000002</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.5112</c:v>
+                  <c:v>2.5112000000000001</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.4012</c:v>
+                  <c:v>2.4011999999999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>2.1549</c:v>
@@ -8666,16 +8707,16 @@
                   <c:v>2.1549</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>2.101</c:v>
@@ -8690,16 +8731,16 @@
                   <c:v>2.101</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>1.9452</c:v>
@@ -8714,118 +8755,118 @@
                   <c:v>1.9452</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.8009</c:v>
+                  <c:v>1.8008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.8009</c:v>
+                  <c:v>1.8008999999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>1.1231</c:v>
@@ -8876,74 +8917,79 @@
                   <c:v>1.1231</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEFB-48AC-8670-985B84242ABB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8998,7 +9044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2140484512"/>
@@ -9012,7 +9058,7 @@
         <c:axId val="-2140484512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9044,7 +9090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2114251056"/>
@@ -9065,10 +9111,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84383800256795"/>
-          <c:y val="0.019096675415573"/>
+          <c:x val="0.84383800256795005"/>
+          <c:y val="1.9096675415573E-2"/>
           <c:w val="0.116384140587535"/>
-          <c:h val="0.258681102362205"/>
+          <c:h val="0.25868110236220498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9096,7 +9142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9126,7 +9172,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9138,9 +9184,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9159,10 +9205,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.066580927384077"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.902863517060367"/>
-          <c:h val="0.746673957421989"/>
+          <c:x val="6.6580927384077004E-2"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.90286351706036705"/>
+          <c:h val="0.74667395742198905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -9944,79 +9990,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>6.8824</c:v>
+                  <c:v>6.8823999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8824</c:v>
+                  <c:v>6.8823999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2647</c:v>
+                  <c:v>6.2647000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2647</c:v>
+                  <c:v>6.2647000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5871</c:v>
+                  <c:v>5.5871000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5871</c:v>
+                  <c:v>5.5871000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5114</c:v>
+                  <c:v>5.5114000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5114</c:v>
+                  <c:v>5.5114000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4643</c:v>
+                  <c:v>5.4642999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4643</c:v>
+                  <c:v>5.4642999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1394</c:v>
+                  <c:v>5.1394000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1394</c:v>
+                  <c:v>5.1394000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8814</c:v>
+                  <c:v>4.8814000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8814</c:v>
+                  <c:v>4.8814000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5848</c:v>
+                  <c:v>4.5848000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5848</c:v>
+                  <c:v>4.5848000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4383</c:v>
+                  <c:v>4.4382999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.402</c:v>
+                  <c:v>4.4020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.402</c:v>
+                  <c:v>4.4020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3724</c:v>
+                  <c:v>4.3723999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3724</c:v>
+                  <c:v>4.3723999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3607</c:v>
+                  <c:v>4.3606999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3607</c:v>
+                  <c:v>4.3606999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0704</c:v>
+                  <c:v>4.0704000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0704</c:v>
+                  <c:v>4.0704000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4.008</c:v>
@@ -10025,28 +10071,28 @@
                   <c:v>4.008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9645</c:v>
+                  <c:v>3.9645000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9065</c:v>
+                  <c:v>3.9064999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9065</c:v>
+                  <c:v>3.9064999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.8207</c:v>
@@ -10073,22 +10119,22 @@
                   <c:v>3.8203</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.6594</c:v>
+                  <c:v>3.6594000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.6018</c:v>
+                  <c:v>3.6017999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6018</c:v>
+                  <c:v>3.6017999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.5915</c:v>
+                  <c:v>3.5914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5915</c:v>
+                  <c:v>3.5914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.4857</c:v>
@@ -10103,40 +10149,40 @@
                   <c:v>3.4857</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4658</c:v>
+                  <c:v>3.4658000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.4658</c:v>
+                  <c:v>3.4658000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3692</c:v>
+                  <c:v>3.3692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1836</c:v>
+                  <c:v>3.1836000000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.1765</c:v>
+                  <c:v>3.1764999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.1127</c:v>
+                  <c:v>3.1126999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.1127</c:v>
+                  <c:v>3.1126999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.1127</c:v>
+                  <c:v>3.1126999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1127</c:v>
+                  <c:v>3.1126999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3.0884</c:v>
@@ -10145,22 +10191,22 @@
                   <c:v>3.0884</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0756</c:v>
+                  <c:v>3.0756000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9801</c:v>
+                  <c:v>2.9801000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9801</c:v>
+                  <c:v>2.9801000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2.8632</c:v>
@@ -10187,22 +10233,22 @@
                   <c:v>2.8632</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.7623</c:v>
+                  <c:v>2.7623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2.6471</c:v>
@@ -10211,106 +10257,106 @@
                   <c:v>2.6471</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.643</c:v>
+                  <c:v>2.6429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.643</c:v>
+                  <c:v>2.6429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.6338</c:v>
+                  <c:v>2.6337999999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.5269</c:v>
+                  <c:v>2.5268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.486</c:v>
+                  <c:v>2.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.3824</c:v>
+                  <c:v>2.3824000000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.3684</c:v>
+                  <c:v>2.3683999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.3684</c:v>
+                  <c:v>2.3683999999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.2924</c:v>
+                  <c:v>2.2924000000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.2924</c:v>
+                  <c:v>2.2924000000000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.2694</c:v>
+                  <c:v>2.2694000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.2461</c:v>
+                  <c:v>2.2461000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1308</c:v>
+                  <c:v>2.1307999999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.1176</c:v>
+                  <c:v>2.1175999999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1176</c:v>
+                  <c:v>2.1175999999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>2.101</c:v>
@@ -10325,28 +10371,28 @@
                   <c:v>2.101</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.9853</c:v>
+                  <c:v>1.9853000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>1.9653</c:v>
@@ -10391,52 +10437,52 @@
                   <c:v>1.9452</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.8339</c:v>
+                  <c:v>1.8339000000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.7757</c:v>
+                  <c:v>1.7757000000000001</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.6846</c:v>
+                  <c:v>1.6846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>1.621</c:v>
@@ -10445,82 +10491,82 @@
                   <c:v>1.621</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.5882</c:v>
+                  <c:v>1.5882000000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.3755</c:v>
+                  <c:v>1.3754999999999999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.2006</c:v>
+                  <c:v>1.2005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.2006</c:v>
+                  <c:v>1.2005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>1.1231</c:v>
@@ -10553,146 +10599,151 @@
                   <c:v>1.1231</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.917</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4DC-4C37-BA84-4709CE017650}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10747,7 +10798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2115177344"/>
@@ -10761,7 +10812,7 @@
         <c:axId val="-2115177344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10793,7 +10844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2115549104"/>
@@ -10814,10 +10865,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84383800256795"/>
-          <c:y val="0.019096675415573"/>
+          <c:x val="0.84383800256795005"/>
+          <c:y val="1.9096675415573E-2"/>
           <c:w val="0.116384140587535"/>
-          <c:h val="0.258681102362205"/>
+          <c:h val="0.25868110236220498"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10845,7 +10896,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10875,7 +10926,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10887,9 +10938,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10938,70 +10989,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,57 +11064,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A9E-48B3-A227-00CC77996C01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11097,70 +11153,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11172,27 +11228,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A9E-48B3-A227-00CC77996C01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11260,7 +11321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2122335088"/>
@@ -11322,7 +11383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-2114336240"/>
@@ -11363,7 +11424,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16395,7 +16456,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16425,7 +16492,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16445,17 +16518,23 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>34466</xdr:rowOff>
+      <xdr:rowOff>34465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16490,7 +16569,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16520,7 +16605,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16552,7 +16643,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16584,7 +16681,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16616,7 +16719,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16653,7 +16762,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18081,636 +18196,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -18722,20 +18837,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>3.3532999999999999</v>
       </c>
@@ -18746,7 +18861,7 @@
         <v>3.3532999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3.0337000000000001</v>
       </c>
@@ -18757,7 +18872,7 @@
         <v>3.0337000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2.5150999999999999</v>
       </c>
@@ -18768,7 +18883,7 @@
         <v>2.5150999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5.5472999999999999</v>
       </c>
@@ -18782,7 +18897,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4.8057999999999996</v>
       </c>
@@ -18793,7 +18908,7 @@
         <v>4.8057999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>132</v>
       </c>
@@ -18801,7 +18916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -18826,7 +18941,7 @@
         <v>0.95793333333333341</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -18851,7 +18966,7 @@
         <v>0.64313333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -18876,7 +18991,7 @@
         <v>0.27896666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -18901,7 +19016,7 @@
         <v>0.80766666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>265</v>
       </c>
@@ -18926,7 +19041,7 @@
         <v>0.38906666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -18937,7 +19052,7 @@
         <v>2.8738000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -18948,7 +19063,7 @@
         <v>1.1672</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -18959,7 +19074,7 @@
         <v>0.83689999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -18970,7 +19085,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -18981,7 +19096,7 @@
         <v>1.9294</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>266</v>
       </c>
@@ -18995,7 +19110,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>261</v>
       </c>
@@ -19012,7 +19127,7 @@
         <v>8.0645161290322578E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>262</v>
       </c>
@@ -19029,7 +19144,7 @@
         <v>0.33870967741935482</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>263</v>
       </c>
@@ -19046,7 +19161,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -19063,7 +19178,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>265</v>
       </c>
@@ -19080,7 +19195,7 @@
         <v>0.17741935483870969</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>106</v>
       </c>
@@ -19091,7 +19206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>51</v>
       </c>
@@ -19102,7 +19217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>39</v>
       </c>
@@ -19113,7 +19228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>95</v>
       </c>
@@ -19124,7 +19239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>83</v>
       </c>
@@ -19144,22 +19259,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT249"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="10" zoomScalePageLayoutView="10" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" zoomScalePageLayoutView="10" workbookViewId="0">
       <selection activeCell="BO173" sqref="BO173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
-    <col min="24" max="25" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="5" max="6" width="8.625" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
+    <col min="24" max="25" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -19251,7 +19366,7 @@
         <v>6.8823999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -19343,7 +19458,7 @@
         <v>6.8823999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -19435,7 +19550,7 @@
         <v>6.2647000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -19527,7 +19642,7 @@
         <v>6.2647000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -19619,7 +19734,7 @@
         <v>5.5871000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -19711,7 +19826,7 @@
         <v>5.5871000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -19803,7 +19918,7 @@
         <v>5.5114000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -19895,7 +20010,7 @@
         <v>5.5114000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -19987,7 +20102,7 @@
         <v>5.4642999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -20079,7 +20194,7 @@
         <v>5.4642999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -20171,7 +20286,7 @@
         <v>5.1394000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -20263,7 +20378,7 @@
         <v>5.1394000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -20355,7 +20470,7 @@
         <v>4.8814000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -20447,7 +20562,7 @@
         <v>4.8814000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -20539,7 +20654,7 @@
         <v>4.5848000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -20631,7 +20746,7 @@
         <v>4.5848000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -20723,7 +20838,7 @@
         <v>4.4382999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>170</v>
       </c>
@@ -20815,7 +20930,7 @@
         <v>4.4020000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -20907,7 +21022,7 @@
         <v>4.4020000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -20999,7 +21114,7 @@
         <v>4.3723999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -21091,7 +21206,7 @@
         <v>4.3723999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -21183,7 +21298,7 @@
         <v>4.3606999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -21275,7 +21390,7 @@
         <v>4.3606999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -21367,7 +21482,7 @@
         <v>4.0704000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -21459,7 +21574,7 @@
         <v>4.0704000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -21551,7 +21666,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -21643,7 +21758,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -21735,7 +21850,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -21827,7 +21942,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -21919,7 +22034,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -22011,7 +22126,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -22103,7 +22218,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -22195,7 +22310,7 @@
         <v>3.9645000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -22287,7 +22402,7 @@
         <v>3.9064999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>236</v>
       </c>
@@ -22379,7 +22494,7 @@
         <v>3.9064999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -22471,7 +22586,7 @@
         <v>3.8207</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>185</v>
       </c>
@@ -22563,7 +22678,7 @@
         <v>3.8207</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>171</v>
       </c>
@@ -22655,7 +22770,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -22747,7 +22862,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -22839,7 +22954,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -22931,7 +23046,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -23023,7 +23138,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -23115,7 +23230,7 @@
         <v>3.8203</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -23207,7 +23322,7 @@
         <v>3.6594000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>159</v>
       </c>
@@ -23299,7 +23414,7 @@
         <v>3.6594000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -23391,7 +23506,7 @@
         <v>3.6017999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -23483,7 +23598,7 @@
         <v>3.6017999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -23575,7 +23690,7 @@
         <v>3.5914999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -23667,7 +23782,7 @@
         <v>3.5914999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -23759,7 +23874,7 @@
         <v>3.4857</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -23851,7 +23966,7 @@
         <v>3.4857</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>198</v>
       </c>
@@ -23943,7 +24058,7 @@
         <v>3.4857</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -24035,7 +24150,7 @@
         <v>3.4857</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -24127,7 +24242,7 @@
         <v>3.4658000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -24219,7 +24334,7 @@
         <v>3.4658000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -24311,7 +24426,7 @@
         <v>3.3692000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -24403,7 +24518,7 @@
         <v>3.3692000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -24495,7 +24610,7 @@
         <v>3.1836000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -24587,7 +24702,7 @@
         <v>3.1836000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -24679,7 +24794,7 @@
         <v>3.1764999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -24771,7 +24886,7 @@
         <v>3.1764999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -24863,7 +24978,7 @@
         <v>3.1126999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -24955,7 +25070,7 @@
         <v>3.1126999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>166</v>
       </c>
@@ -25047,7 +25162,7 @@
         <v>3.1126999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -25139,7 +25254,7 @@
         <v>3.1126999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -25231,7 +25346,7 @@
         <v>3.0884</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -25323,7 +25438,7 @@
         <v>3.0884</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -25415,7 +25530,7 @@
         <v>3.0756000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -25507,7 +25622,7 @@
         <v>3.0756000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>172</v>
       </c>
@@ -25599,7 +25714,7 @@
         <v>3.0756000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>172</v>
       </c>
@@ -25691,7 +25806,7 @@
         <v>3.0756000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>234</v>
       </c>
@@ -25783,7 +25898,7 @@
         <v>2.9801000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>234</v>
       </c>
@@ -25875,7 +25990,7 @@
         <v>2.9801000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -25967,7 +26082,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -26059,7 +26174,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -26151,7 +26266,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -26243,7 +26358,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -26335,7 +26450,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -26427,7 +26542,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -26519,7 +26634,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -26611,7 +26726,7 @@
         <v>2.8632</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -26703,7 +26818,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -26795,7 +26910,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>230</v>
       </c>
@@ -26887,7 +27002,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>230</v>
       </c>
@@ -26979,7 +27094,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -27071,7 +27186,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -27163,7 +27278,7 @@
         <v>2.7623000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -27255,7 +27370,7 @@
         <v>2.6471</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>182</v>
       </c>
@@ -27347,7 +27462,7 @@
         <v>2.6471</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>242</v>
       </c>
@@ -27439,7 +27554,7 @@
         <v>2.6429999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>242</v>
       </c>
@@ -27531,7 +27646,7 @@
         <v>2.6429999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -27623,7 +27738,7 @@
         <v>2.6337999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -27715,7 +27830,7 @@
         <v>2.6337999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -27807,7 +27922,7 @@
         <v>2.5268999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -27899,7 +28014,7 @@
         <v>2.5268999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>213</v>
       </c>
@@ -27991,7 +28106,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -28083,7 +28198,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -28175,7 +28290,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>141</v>
       </c>
@@ -28267,7 +28382,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -28359,7 +28474,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -28451,7 +28566,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -28543,7 +28658,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -28635,7 +28750,7 @@
         <v>2.3824000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -28727,7 +28842,7 @@
         <v>2.3683999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -28819,7 +28934,7 @@
         <v>2.3683999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>146</v>
       </c>
@@ -28911,7 +29026,7 @@
         <v>2.2924000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -29003,7 +29118,7 @@
         <v>2.2924000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -29095,7 +29210,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>151</v>
       </c>
@@ -29187,7 +29302,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -29279,7 +29394,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -29371,7 +29486,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -29463,7 +29578,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -29555,7 +29670,7 @@
         <v>2.2694000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -29647,7 +29762,7 @@
         <v>2.2461000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>215</v>
       </c>
@@ -29739,7 +29854,7 @@
         <v>2.2461000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>191</v>
       </c>
@@ -29831,7 +29946,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>191</v>
       </c>
@@ -29923,7 +30038,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>229</v>
       </c>
@@ -30015,7 +30130,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -30107,7 +30222,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>158</v>
       </c>
@@ -30199,7 +30314,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>158</v>
       </c>
@@ -30291,7 +30406,7 @@
         <v>2.1307999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -30383,7 +30498,7 @@
         <v>2.1175999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -30475,7 +30590,7 @@
         <v>2.1175999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -30567,7 +30682,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>216</v>
       </c>
@@ -30659,7 +30774,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>154</v>
       </c>
@@ -30751,7 +30866,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -30843,7 +30958,7 @@
         <v>2.101</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>233</v>
       </c>
@@ -30935,7 +31050,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>233</v>
       </c>
@@ -31027,7 +31142,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>162</v>
       </c>
@@ -31119,7 +31234,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -31211,7 +31326,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>176</v>
       </c>
@@ -31303,7 +31418,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>176</v>
       </c>
@@ -31395,7 +31510,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>246</v>
       </c>
@@ -31487,7 +31602,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>246</v>
       </c>
@@ -31579,7 +31694,7 @@
         <v>1.9853000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>207</v>
       </c>
@@ -31671,7 +31786,7 @@
         <v>1.9653</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>207</v>
       </c>
@@ -31763,7 +31878,7 @@
         <v>1.9653</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>214</v>
       </c>
@@ -31855,7 +31970,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>214</v>
       </c>
@@ -31947,7 +32062,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -32039,7 +32154,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -32131,7 +32246,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>220</v>
       </c>
@@ -32223,7 +32338,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>220</v>
       </c>
@@ -32315,7 +32430,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>223</v>
       </c>
@@ -32407,7 +32522,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -32499,7 +32614,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>237</v>
       </c>
@@ -32591,7 +32706,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -32683,7 +32798,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>217</v>
       </c>
@@ -32775,7 +32890,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>217</v>
       </c>
@@ -32867,7 +32982,7 @@
         <v>1.9452</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -32959,7 +33074,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -33051,7 +33166,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>235</v>
       </c>
@@ -33143,7 +33258,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -33235,7 +33350,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>254</v>
       </c>
@@ -33327,7 +33442,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>254</v>
       </c>
@@ -33419,7 +33534,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>210</v>
       </c>
@@ -33511,7 +33626,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>210</v>
       </c>
@@ -33603,7 +33718,7 @@
         <v>1.8339000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>144</v>
       </c>
@@ -33695,7 +33810,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>144</v>
       </c>
@@ -33787,7 +33902,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -33879,7 +33994,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -33971,7 +34086,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>208</v>
       </c>
@@ -34063,7 +34178,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>208</v>
       </c>
@@ -34155,7 +34270,7 @@
         <v>1.7757000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>143</v>
       </c>
@@ -34247,7 +34362,7 @@
         <v>1.6846000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>143</v>
       </c>
@@ -34339,7 +34454,7 @@
         <v>1.6846000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>206</v>
       </c>
@@ -34431,7 +34546,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -34523,7 +34638,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>160</v>
       </c>
@@ -34615,7 +34730,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -34707,7 +34822,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -34799,7 +34914,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -34891,7 +35006,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>249</v>
       </c>
@@ -34983,7 +35098,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>249</v>
       </c>
@@ -35075,7 +35190,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -35167,7 +35282,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -35259,7 +35374,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -35351,7 +35466,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -35443,7 +35558,7 @@
         <v>1.5882000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>142</v>
       </c>
@@ -35535,7 +35650,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>142</v>
       </c>
@@ -35627,7 +35742,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -35719,7 +35834,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -35811,7 +35926,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>201</v>
       </c>
@@ -35903,7 +36018,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -35995,7 +36110,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>241</v>
       </c>
@@ -36087,7 +36202,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>241</v>
       </c>
@@ -36179,7 +36294,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>248</v>
       </c>
@@ -36271,7 +36386,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>248</v>
       </c>
@@ -36363,7 +36478,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>250</v>
       </c>
@@ -36455,7 +36570,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>250</v>
       </c>
@@ -36547,7 +36662,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>212</v>
       </c>
@@ -36639,7 +36754,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -36731,7 +36846,7 @@
         <v>1.3754999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>228</v>
       </c>
@@ -36823,7 +36938,7 @@
         <v>1.2005999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>228</v>
       </c>
@@ -36915,7 +37030,7 @@
         <v>1.2005999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -37007,7 +37122,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>188</v>
       </c>
@@ -37099,7 +37214,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -37191,7 +37306,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -37283,7 +37398,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -37375,7 +37490,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -37467,7 +37582,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>244</v>
       </c>
@@ -37559,7 +37674,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -37651,7 +37766,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -37743,7 +37858,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>177</v>
       </c>
@@ -37835,7 +37950,7 @@
         <v>1.1231</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>179</v>
       </c>
@@ -37927,7 +38042,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>179</v>
       </c>
@@ -38019,7 +38134,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -38111,7 +38226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>239</v>
       </c>
@@ -38203,7 +38318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>252</v>
       </c>
@@ -38295,7 +38410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>252</v>
       </c>
@@ -38387,7 +38502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>253</v>
       </c>
@@ -38479,7 +38594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>253</v>
       </c>
@@ -38571,7 +38686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>255</v>
       </c>
@@ -38663,7 +38778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>255</v>
       </c>
@@ -38755,7 +38870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -38847,7 +38962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -38939,7 +39054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -39031,7 +39146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -39123,7 +39238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>240</v>
       </c>
@@ -39215,7 +39330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -39307,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>247</v>
       </c>
@@ -39399,7 +39514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -39491,7 +39606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>251</v>
       </c>
@@ -39583,7 +39698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>251</v>
       </c>
@@ -39675,7 +39790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -39767,7 +39882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>165</v>
       </c>
@@ -39859,7 +39974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>137</v>
       </c>
@@ -39951,7 +40066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>137</v>
       </c>
@@ -40043,7 +40158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>205</v>
       </c>
@@ -40135,7 +40250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>205</v>
       </c>
@@ -40227,7 +40342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>218</v>
       </c>
@@ -40319,7 +40434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>218</v>
       </c>
@@ -40411,7 +40526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>199</v>
       </c>
@@ -40503,7 +40618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>199</v>
       </c>
@@ -40595,7 +40710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>221</v>
       </c>
@@ -40687,7 +40802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>221</v>
       </c>
@@ -40779,7 +40894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -40871,7 +40986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -40963,7 +41078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>231</v>
       </c>
@@ -41055,7 +41170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>231</v>
       </c>
@@ -41147,7 +41262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>184</v>
       </c>
@@ -41239,7 +41354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>184</v>
       </c>
@@ -41331,7 +41446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>197</v>
       </c>
@@ -41423,7 +41538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>197</v>
       </c>
@@ -41515,7 +41630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>227</v>
       </c>
@@ -41607,7 +41722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>227</v>
       </c>
@@ -41699,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>238</v>
       </c>
@@ -41791,7 +41906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>238</v>
       </c>
@@ -41883,7 +41998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -41975,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>245</v>
       </c>
@@ -42079,16 +42194,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -42099,7 +42214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -42110,7 +42225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42121,7 +42236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42132,7 +42247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42143,7 +42258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42154,7 +42269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42165,7 +42280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42176,7 +42291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42187,7 +42302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -42198,7 +42313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -42209,7 +42324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -42220,7 +42335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -42231,7 +42346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -42242,7 +42357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -42253,7 +42368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -42264,7 +42379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -42275,7 +42390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -42286,7 +42401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -42297,7 +42412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>7</v>
       </c>
@@ -42308,7 +42423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>8</v>
       </c>
@@ -42319,7 +42434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>9</v>
       </c>
